--- a/mbs-EP-v.1.0.0/Excel Files/flyball_governor/flyball_governor_gravity_spring_damper.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/flyball_governor/flyball_governor_gravity_spring_damper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A2781-63AA-4941-BBEF-348E9C61AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5540BE50-D294-4DF8-BF34-C7ECF2FBDAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="4905" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1319,99 +1319,126 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1513,33 +1540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1975,7 +1975,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H29"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,21 +2017,21 @@
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="75" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="89"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="100"/>
       <c r="P3" s="45" t="s">
         <v>164</v>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="51">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>22</v>
@@ -2056,14 +2056,14 @@
       <c r="K4" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="77"/>
       <c r="M4" s="44" t="s">
         <v>134</v>
       </c>
       <c r="N4" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="90"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="45" t="s">
         <v>165</v>
       </c>
@@ -2088,14 +2088,14 @@
       <c r="K5" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="78"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="45" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="90"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="45" t="s">
         <v>166</v>
       </c>
@@ -2120,14 +2120,14 @@
       <c r="K6" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="78"/>
+      <c r="L6" s="77"/>
       <c r="M6" s="45" t="s">
         <v>136</v>
       </c>
       <c r="N6" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="90"/>
+      <c r="O6" s="101"/>
       <c r="P6" s="45" t="s">
         <v>170</v>
       </c>
@@ -2152,14 +2152,14 @@
       <c r="K7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="78"/>
+      <c r="L7" s="77"/>
       <c r="M7" s="45" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="90"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="45" t="s">
         <v>169</v>
       </c>
@@ -2184,14 +2184,14 @@
       <c r="K8" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="78"/>
+      <c r="L8" s="77"/>
       <c r="M8" s="45" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="90"/>
+      <c r="O8" s="101"/>
       <c r="P8" s="45" t="s">
         <v>173</v>
       </c>
@@ -2214,14 +2214,14 @@
       <c r="K9" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="78"/>
+      <c r="L9" s="77"/>
       <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="90"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="45" t="s">
         <v>174</v>
       </c>
@@ -2236,14 +2236,14 @@
       <c r="K10" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="L10" s="78"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="45" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="90"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="50" t="s">
         <v>175</v>
       </c>
@@ -2254,14 +2254,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="78"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="45" t="s">
         <v>138</v>
       </c>
       <c r="N11" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="O11" s="90"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="50" t="s">
         <v>176</v>
       </c>
@@ -2281,14 +2281,14 @@
       <c r="H12" s="67"/>
       <c r="J12" s="56"/>
       <c r="K12" s="57"/>
-      <c r="L12" s="78"/>
+      <c r="L12" s="77"/>
       <c r="M12" s="45" t="s">
         <v>139</v>
       </c>
       <c r="N12" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="O12" s="90"/>
+      <c r="O12" s="101"/>
       <c r="P12" s="45" t="s">
         <v>181</v>
       </c>
@@ -2307,19 +2307,19 @@
       <c r="E13" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
       <c r="J13" s="56"/>
       <c r="K13" s="57"/>
-      <c r="L13" s="78"/>
+      <c r="L13" s="77"/>
       <c r="M13" s="45" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="90"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="50" t="s">
         <v>182</v>
       </c>
@@ -2336,19 +2336,19 @@
       <c r="E14" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
       <c r="J14" s="58"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="78"/>
+      <c r="L14" s="77"/>
       <c r="M14" s="45" t="s">
         <v>140</v>
       </c>
       <c r="N14" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="O14" s="90"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="50" t="s">
         <v>183</v>
       </c>
@@ -2367,21 +2367,21 @@
       <c r="E15" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="J15" s="75" t="s">
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="J15" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="76"/>
-      <c r="L15" s="78"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="77"/>
       <c r="M15" s="45" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="90"/>
+      <c r="O15" s="101"/>
       <c r="P15" s="50" t="s">
         <v>184</v>
       </c>
@@ -2398,23 +2398,23 @@
       <c r="E16" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
       <c r="J16" s="45" t="s">
         <v>97</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="78"/>
+      <c r="L16" s="77"/>
       <c r="M16" s="45" t="s">
         <v>141</v>
       </c>
       <c r="N16" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="90"/>
+      <c r="O16" s="101"/>
       <c r="P16" s="45" t="s">
         <v>189</v>
       </c>
@@ -2433,21 +2433,21 @@
       <c r="E17" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="J17" s="45" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="78"/>
-      <c r="M17" s="75" t="s">
+      <c r="L17" s="77"/>
+      <c r="M17" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="90"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="50" t="s">
         <v>190</v>
       </c>
@@ -2456,33 +2456,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="66" t="s">
         <v>242</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
       <c r="J18" s="45" t="s">
         <v>98</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="L18" s="78"/>
+      <c r="L18" s="77"/>
       <c r="M18" s="53" t="s">
         <v>163</v>
       </c>
       <c r="N18" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="O18" s="90"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="50" t="s">
         <v>191</v>
       </c>
@@ -2491,31 +2491,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="66"/>
       <c r="E19" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
       <c r="J19" s="45" t="s">
         <v>99</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="78"/>
+      <c r="L19" s="77"/>
       <c r="M19" s="46" t="s">
         <v>154</v>
       </c>
       <c r="N19" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="90"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="50" t="s">
         <v>192</v>
       </c>
@@ -2524,31 +2524,31 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="J20" s="45" t="s">
         <v>105</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="78"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="46" t="s">
         <v>155</v>
       </c>
       <c r="N20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="90"/>
+      <c r="O20" s="101"/>
       <c r="P20" s="45" t="s">
         <v>197</v>
       </c>
@@ -2565,23 +2565,23 @@
       <c r="E21" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
       <c r="J21" s="45" t="s">
         <v>100</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="78"/>
+      <c r="L21" s="77"/>
       <c r="M21" s="46" t="s">
         <v>156</v>
       </c>
       <c r="N21" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="O21" s="90"/>
+      <c r="O21" s="101"/>
       <c r="P21" s="50" t="s">
         <v>198</v>
       </c>
@@ -2590,35 +2590,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="95"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="66">
         <v>2</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="139" t="s">
+      <c r="F22" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
       <c r="J22" s="32" t="s">
         <v>111</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="79"/>
+      <c r="L22" s="78"/>
       <c r="M22" s="46" t="s">
         <v>157</v>
       </c>
       <c r="N22" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="O22" s="90"/>
+      <c r="O22" s="101"/>
       <c r="P22" s="50" t="s">
         <v>199</v>
       </c>
@@ -2627,21 +2627,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="66">
         <v>3</v>
       </c>
-      <c r="E23" s="101"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="90"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="101"/>
       <c r="P23" s="50" t="s">
         <v>200</v>
       </c>
@@ -2650,19 +2650,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="66"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="144"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="90"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="101"/>
       <c r="P24" s="32" t="s">
         <v>206</v>
       </c>
@@ -2671,19 +2671,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="66"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="144"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="90"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="101"/>
       <c r="P25" s="32" t="s">
         <v>210</v>
       </c>
@@ -2692,19 +2692,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="66"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="144"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="90"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="101"/>
       <c r="P26" s="32" t="s">
         <v>211</v>
       </c>
@@ -2713,19 +2713,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="66"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="144"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="90"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="87"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="32" t="s">
         <v>212</v>
       </c>
@@ -2734,19 +2734,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="66"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="144"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="90"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="101"/>
       <c r="P28" s="32" t="s">
         <v>214</v>
       </c>
@@ -2755,19 +2755,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="98"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="90"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="32" t="s">
         <v>213</v>
       </c>
@@ -2776,12 +2776,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="90"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="101"/>
       <c r="P30" s="32" t="s">
         <v>215</v>
       </c>
@@ -2790,12 +2790,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="90"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="101"/>
       <c r="P31" s="32" t="s">
         <v>216</v>
       </c>
@@ -2804,12 +2804,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="90"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="101"/>
       <c r="P32" s="32" t="s">
         <v>217</v>
       </c>
@@ -2818,12 +2818,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="90"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="101"/>
       <c r="P33" s="32" t="s">
         <v>218</v>
       </c>
@@ -2832,12 +2832,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="83"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="90"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="101"/>
       <c r="P34" s="32" t="s">
         <v>219</v>
       </c>
@@ -2846,12 +2846,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="90"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="101"/>
       <c r="P35" s="32" t="s">
         <v>220</v>
       </c>
@@ -2860,12 +2860,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="90"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="101"/>
       <c r="P36" s="32" t="s">
         <v>229</v>
       </c>
@@ -2874,12 +2874,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="83"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="90"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="101"/>
       <c r="P37" s="32" t="s">
         <v>230</v>
       </c>
@@ -2888,12 +2888,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="86"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="90"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="101"/>
       <c r="P38" s="32" t="s">
         <v>231</v>
       </c>
@@ -2911,7 +2911,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E22:E29"/>
     <mergeCell ref="F22:H29"/>
     <mergeCell ref="J23:N38"/>
     <mergeCell ref="O3:O38"/>
@@ -2941,6 +2940,7 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="E22:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2972,8 +2972,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
       <c r="C1" s="68" t="s">
         <v>30</v>
       </c>
@@ -3021,23 +3021,23 @@
       <c r="AK1" s="68"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="104" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104" t="s">
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="68" t="s">
         <v>33</v>
       </c>
@@ -3048,27 +3048,27 @@
       </c>
       <c r="P2" s="68"/>
       <c r="Q2" s="68"/>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="104" t="s">
+      <c r="S2" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
       <c r="W2" s="68" t="s">
         <v>93</v>
       </c>
       <c r="X2" s="68"/>
       <c r="Y2" s="68"/>
-      <c r="Z2" s="91" t="s">
+      <c r="Z2" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="92"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="103"/>
       <c r="AC2" s="68" t="s">
         <v>91</v>
       </c>
@@ -3137,8 +3137,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="93"/>
-      <c r="S3" s="103"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="111"/>
       <c r="T3" s="16" t="s">
         <v>63</v>
       </c>
@@ -6873,16 +6873,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6913,11 +6913,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6973,19 +6973,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7010,16 +7010,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="109" t="s">
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -7055,22 +7055,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7095,21 +7095,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="108" t="s">
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108" t="s">
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7163,19 +7163,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7200,16 +7200,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108" t="s">
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7351,19 +7351,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7388,16 +7388,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="107" t="s">
+      <c r="F19" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="108" t="s">
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -7434,19 +7434,19 @@
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -7471,16 +7471,16 @@
       <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="107" t="s">
+      <c r="F23" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108" t="s">
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
     </row>
     <row r="24" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -7517,22 +7517,22 @@
     </row>
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
@@ -7550,44 +7550,44 @@
       <c r="E27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="107" t="s">
+      <c r="F27" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="108" t="s">
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108" t="s">
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
@@ -7605,26 +7605,26 @@
       <c r="E31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="109" t="s">
+      <c r="F31" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="110"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="109" t="s">
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="110"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="108" t="s">
+      <c r="J31" s="119"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108" t="s">
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -7647,14 +7647,14 @@
     </row>
     <row r="33" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -7728,12 +7728,12 @@
       <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -7805,15 +7805,15 @@
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="114"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="123"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
@@ -7833,11 +7833,11 @@
       <c r="D43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="108" t="s">
+      <c r="E43" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
@@ -7970,18 +7970,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -7999,11 +7999,11 @@
       <c r="E2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
       <c r="I2" s="25" t="s">
         <v>50</v>
       </c>
@@ -8056,58 +8056,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="123" t="s">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="125"/>
-      <c r="V2" s="130" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
+      <c r="V2" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -8125,16 +8125,16 @@
       <c r="E3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="135" t="s">
+      <c r="G3" s="141"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="65" t="s">
         <v>250</v>
       </c>
@@ -8153,16 +8153,16 @@
       <c r="Q3" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="134"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
+      <c r="S3" s="143"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
@@ -8204,12 +8204,12 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
@@ -8253,76 +8253,76 @@
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
+      <c r="AA6" s="139"/>
     </row>
     <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
     </row>
     <row r="8" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="138" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="130"/>
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="130"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="147"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
     </row>
     <row r="9" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
@@ -8340,16 +8340,16 @@
       <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="F9" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="132"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="135" t="s">
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
       <c r="L9" s="40" t="s">
         <v>115</v>
       </c>
@@ -8365,16 +8365,16 @@
       <c r="P9" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="Q9" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="R9" s="133"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
+      <c r="R9" s="142"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
@@ -8410,12 +8410,12 @@
         <v>40</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
@@ -8450,51 +8450,51 @@
       <c r="L11" s="47">
         <v>40</v>
       </c>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="130"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Q12" s="47"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
       <c r="Q13" s="47"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
-      <c r="Y13" s="130"/>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="130"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
     </row>
     <row r="14" spans="1:27" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
@@ -8512,24 +8512,24 @@
       <c r="E14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
       <c r="I14" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="127" t="s">
+      <c r="J14" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="128"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="126" t="s">
+      <c r="K14" s="137"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
       <c r="P14" s="36" t="s">
         <v>80</v>
       </c>
@@ -8580,20 +8580,20 @@
       <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -8616,11 +8616,11 @@
       </c>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
-      <c r="I18" s="91" t="s">
+      <c r="I18" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="J18" s="105"/>
-      <c r="K18" s="92"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="103"/>
       <c r="L18" s="33" t="s">
         <v>162</v>
       </c>
@@ -8714,11 +8714,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
       <c r="F1" s="71" t="s">
         <v>158</v>
       </c>
@@ -8746,12 +8746,12 @@
       <c r="G2" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
@@ -8763,10 +8763,10 @@
       <c r="G3" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
@@ -8778,10 +8778,10 @@
       <c r="G4" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
@@ -8793,10 +8793,10 @@
       <c r="G5" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
@@ -8808,10 +8808,10 @@
       <c r="G6" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
